--- a/Predictions/Week 9/Week 9.xlsx
+++ b/Predictions/Week 9/Week 9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197C293-398A-460D-8788-C48332AA9C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD458B2-B303-4781-8E0F-608016ECEF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +273,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +625,13 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -637,7 +645,7 @@
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -646,7 +654,7 @@
       <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -660,19 +668,19 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -686,16 +694,16 @@
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -709,16 +717,16 @@
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -732,10 +740,10 @@
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -752,19 +760,19 @@
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -778,13 +786,13 @@
       <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -798,16 +806,16 @@
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -821,16 +829,16 @@
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -853,7 +861,7 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -873,13 +881,13 @@
       <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -890,16 +898,16 @@
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -927,6 +935,23 @@
       </c>
       <c r="G15" s="9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="11">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.2858</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.2858</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.1429</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.64290000000000003</v>
       </c>
     </row>
   </sheetData>
